--- a/mapping_cardiac/Cardiovascular2014-.xlsx
+++ b/mapping_cardiac/Cardiovascular2014-.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/0423/Covid19WKari/mapping_cardiac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C24EC56-02B2-7C4F-BF72-9E21C839B455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A77272-CFC9-2441-977A-123B4688BA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="460" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2140" yWindow="4080" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19362,6 +19362,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="6"/>
     <col min="3" max="3" width="14.5" style="3"/>
     <col min="4" max="4" width="21.6640625" style="3" customWidth="1"/>

--- a/mapping_cardiac/Cardiovascular2014-.xlsx
+++ b/mapping_cardiac/Cardiovascular2014-.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/0423/Covid19WKari/mapping_cardiac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A77272-CFC9-2441-977A-123B4688BA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09B692A-6329-9742-AF50-A8363CA6D75F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="4080" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8660" yWindow="4140" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19357,7 +19357,7 @@
   <dimension ref="A1:F3190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
